--- a/data/trans_dic/Predimed_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,69; 37,17</t>
+          <t>17,78; 24,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 36,44</t>
+          <t>19,53; 25,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 34,22</t>
+          <t>19,78; 24,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>14,03%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 23,79</t>
+          <t>5,61; 15,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 23,84</t>
+          <t>14,76; 19,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,66</t>
+          <t>8,88; 16,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 16,78</t>
+          <t>14,39; 21,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 19,02</t>
+          <t>7,96; 26,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 17,25</t>
+          <t>11,22; 22,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>18,1%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,88</t>
+          <t>14,66; 19,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 20,14</t>
+          <t>15,23; 21,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 19,31</t>
+          <t>15,99; 20,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,72; 19,86</t>
+          <t>12,23; 17,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,73</t>
+          <t>15,03; 20,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,62</t>
+          <t>14,83; 18,86</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,96%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,55%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15,5; 18,49</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,59; 20,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 18,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/Predimed_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,69</t>
+          <t>17,83; 24,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,53; 25,04</t>
+          <t>19,5; 24,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 24,1</t>
+          <t>19,5; 23,69</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 15,74</t>
+          <t>5,83; 15,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,25</t>
+          <t>14,91; 19,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 16,62</t>
+          <t>8,72; 16,56</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 21,56</t>
+          <t>14,38; 21,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 26,11</t>
+          <t>8,1; 25,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 22,35</t>
+          <t>10,56; 22,08</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 19,95</t>
+          <t>14,77; 20,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,7</t>
+          <t>15,11; 21,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 20,0</t>
+          <t>15,94; 19,99</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,93</t>
+          <t>12,12; 17,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,77</t>
+          <t>14,88; 21,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,86</t>
+          <t>14,82; 18,94</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con una adherencia alta a la dieta mediterránea</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>120886</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>139475</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>260361</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>102825; 142496</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>122272; 155798</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>234645; 285088</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131485</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>149876</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>281361</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65274; 177793</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>132276; 168875</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>174950; 332173</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>111267</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>145998</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>257265</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>92370; 135693</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71746; 228981</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>161398; 337523</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>152880</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>199969</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>352849</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>131233; 178099</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>160405; 227915</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>310824; 389770</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>516519</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>635318</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1151836</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>390986; 577176</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>515200; 727904</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>990921; 1266726</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>